--- a/InterAutoTest_W/data/testdata.xlsx
+++ b/InterAutoTest_W/data/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\测试\InterAutoTest_W\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\testpy\InterAutoTest_W\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44271D7-086F-42A3-A32F-523D98454120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A02F30-891E-4C98-97DF-9F6D3472867F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
   <si>
     <t>headers</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -563,81 +563,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>n</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>{"Authorization": "JWT ${token}$"}</t>
   </si>
   <si>
     <t>select id,username,mobile,email from tb_users where username='python'</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheet名称  feature 一级标签</t>
-    <rPh sb="5" eb="6">
-      <t>qkt</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>g</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>xe</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>sft</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块   story 二级标签</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例ID+接口名称  title</t>
-    <rPh sb="0" eb="1">
-      <t>etwg</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>wgq</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>rukk</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>qkt</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求URL  请求类型 期望结果 实际结果描述</t>
-    <rPh sb="0" eb="1">
-      <t>yge</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>fiy</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ygfi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>odga</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>adyn</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>xfj</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>pub</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>xfj</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ras</t>
-    </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2088,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
@@ -2295,7 +2224,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="11"/>
       <c r="L5" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2375,7 +2304,7 @@
       </c>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="27.6">
       <c r="A8" s="10" t="s">
         <v>48</v>
       </c>
@@ -2395,24 +2324,26 @@
         <v>22</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="I8" s="16" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="11"/>
       <c r="L8" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="4">
         <v>200</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="69">
@@ -2442,7 +2373,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="11"/>
       <c r="L9" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -2485,7 +2416,7 @@
         <v>76</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4">
@@ -2575,9 +2506,7 @@
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -2595,9 +2524,7 @@
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2615,9 +2542,7 @@
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -2635,9 +2560,7 @@
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="12" t="s">
-        <v>89</v>
-      </c>
+      <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>

--- a/InterAutoTest_W/data/testdata.xlsx
+++ b/InterAutoTest_W/data/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\testpy\InterAutoTest_W\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A02F30-891E-4C98-97DF-9F6D3472867F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE69A75-BC04-4176-9C7F-B34ED4ED43D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2017,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>

--- a/InterAutoTest_W/data/testdata.xlsx
+++ b/InterAutoTest_W/data/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\testpy\InterAutoTest_W\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE69A75-BC04-4176-9C7F-B34ED4ED43D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91CDA31-71DF-4742-8F8F-A6716448ED4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
